--- a/Dados/Processados/consumo_painel.xlsx
+++ b/Dados/Processados/consumo_painel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus-rosa\Documents\Projetos Python\seleme_wood\Dados\Brutos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus-rosa\Documents\Projetos Python\seleme_wood\Dados\Processados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28300F26-5AF4-4459-91DC-893976F67C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B337E-1A44-41C4-BEF2-19473894E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38C92DDC-446E-4FFC-AB86-B2F784AFDE4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{38C92DDC-446E-4FFC-AB86-B2F784AFDE4D}"/>
   </bookViews>
   <sheets>
     <sheet name="graf1" sheetId="1" r:id="rId1"/>
@@ -428,11 +428,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FA1680-3A53-4001-8049-67D9C7864507}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -835,11 +840,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037CA5D6-BE90-49F4-BDF2-2383E831E7CF}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
